--- a/00_Outputs/df_ai_titles.xlsx
+++ b/00_Outputs/df_ai_titles.xlsx
@@ -1,21 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/546dce4fa68575c2/Desktop/R/01_Projects/00_TidyTuesday/For GitHub/TidyTuesday_2025-Jan-Wk2/00_Outputs/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="10" documentId="11_AAF05FC78F79A8D366075C52F37BD272EA4CD000" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6AD27BF-4817-4CF2-BE1A-844C58BE58F8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+  <si>
+    <t>human_talk_title</t>
+  </si>
+  <si>
+    <t>ai_summary</t>
+  </si>
+  <si>
+    <t>human_description</t>
+  </si>
+  <si>
+    <t>human_title_word_count</t>
+  </si>
+  <si>
+    <t>human_description_word_count</t>
+  </si>
+  <si>
+    <t>ai_summary_word_count</t>
+  </si>
+  <si>
+    <t>rainbowR - a community that supports, connects and promotes LGBTQ+ people who code in R</t>
+  </si>
+  <si>
+    <t>rainbowR connects LGBTQ+ people in the R community through activism and offers involvement opportunities.</t>
+  </si>
+  <si>
+    <t>rainbowR's mission is to connect, support, and promote LGBTQ+ people in the R community and to spread awareness of LGBTQ+ issues through data-driven activism. 
+ In this lightning talk, you'll learn about the community, our activities, and how you can get involved, whether as a member of the LGBTQ+ community or an ally.  
+ For more, see &lt;https://rainbow.org&gt;.</t>
+  </si>
+  <si>
+    <t>JSquarto: Bridging JavaScript Documentation with Quarto's Power</t>
+  </si>
+  <si>
+    <t>Richie Moluno introduces JSquarto for generating flexible, multilingual JavaScript documentation using Quarto and GitHub.</t>
+  </si>
+  <si>
+    <t>In this talk, Richie Moluno introduces a new tool called JSquarto, which solves common challenges developers face when documenting JavaScript projects, like the lack of support for multilingualism (especially for right-to-left languages and non-Latin scripts) and limited design flexibility. Inspired by quartodoc, Richie shows how Quarto can be used to solve these problems by generating flexible, multilingual JavaScript documentation. He also walks through how the whole process can be automated using GitHub, making it easier to keep docs up to date across different languages and formats &amp; how it can be integrated with Crowdin, a translation management system.</t>
+  </si>
+  <si>
+    <t>Ten Simple Rules for Teaching an Introduction to R</t>
+  </si>
+  <si>
+    <t>Top 10 teaching R tips distilled from award-winning experience for quick, successful instruction.</t>
+  </si>
+  <si>
+    <t>Many of us feel unprepared to teach R, either because of a lack of guidance or time to prepare. We’ve distilled our award-winning teaching experience into our top 10 takeaways so you can get up and running teaching R quickly. This includes advice for setting yourself up for success, keeping it practical, and knowing your learners. To see our tips in more detail, check out our paper: https://doi.org/10.1371/journal.pcbi.1012018</t>
+  </si>
+  <si>
+    <t>R Scripts to Databricks: Lessons in Production Workflow</t>
+  </si>
+  <si>
+    <t>Disney streamlined ESPN's marketing analytics with automated R, Python, SQL, Databricks, and Tableau integration.</t>
+  </si>
+  <si>
+    <t>This talk is about how a team at The Walt Disney Company took the past year to take a local R workflow into production. This updated process uses a mix of R, Python, SQL, Databricks, and Tableau dashboard, all of which involves multiple teams and stakeholders. The project started as a manual monthly process to measure the effect of ESPN's live TV marketing to get consumers to convert to cross-channel platforms related to ESPN. But then we not only needed to automate this process, but also to scale it to measure the effect of marketing. The few lessons shared are: don't reinvent the wheel; use not only the best tool for the job, but the best available; take time to get used to new tools.</t>
+  </si>
+  <si>
+    <t>Translating clinical guidance to actionable insights with R</t>
+  </si>
+  <si>
+    <t>COTA developed rwnavigator, an R package, to help users analyze real-world oncological data.</t>
+  </si>
+  <si>
+    <t>COTA’s team of oncologists and data scientists curate real-world data used by life science companies and healthcare partners to inform drug development and patient care. Over time, we have received many of the same questions from our data users, which indicated a dire need for translating our internal clinical guidance and data model knowledge into a tool for successfully navigating our data. We developed rwnavigator, an R package that helps users easily prepare COTA data for analysis with time-to-event packages. As first-time package developers, we ran into many challenges as we created, tested, and deployed rwnavigator. We hope to share with the greater R community our motivations for developing this package and best practices we learned along the way.</t>
+  </si>
+  <si>
+    <t>Why’d you load that package for?</t>
+  </si>
+  <si>
+    <t>The talk explores managing packages with annotations for clarity and educational purposes.</t>
+  </si>
+  <si>
+    <t>Packages enhance programming languages, and working with code makes workflows repeatable. However, the number of existing packages can be overwhelming to the point of obscuring their roles within projects. This talk discusses the importance of scripts, and introduces ways to enhance package load calls. First, by building annotations with the annotater R package and also by learning from code comments across GitHub. The value of recording information such as package source, version, title, or even which functions or data are used in a script is discussed in both data science and teaching environments.</t>
+  </si>
+  <si>
+    <t>DataPages for interactive data sharing using Quarto</t>
+  </si>
+  <si>
+    <t>Datapages improves FAIR data sharing by offering interactive tools for non-experts.</t>
+  </si>
+  <si>
+    <t>Findable, accessible, interoperable, and reusable (FAIR) data sharing is a key component of open science but presents a challenge for researchers, especially those with limited technical expertise or resources. If datasets are shared, it's most often as static files, restricting the FAIRness of the data. We use Quarto and Observable JS to develop Datapages, tools and templates that bridge this gap. Datapages enables researchers and other data distributors to easily share versioned datasets along with interactive visualizations, rich documentation, and user-friendly access functionality.</t>
+  </si>
+  <si>
+    <t>Using the Kyber R package to connect Google Sheets, RMarkdown, GitHub, and Agenda docs for open education</t>
+  </si>
+  <si>
+    <t>Openscapes' Kyber automates setup for teaching coding, enhancing efficiency and collaboration in workshops.</t>
+  </si>
+  <si>
+    <t>As we work in open data science spaces, we frequently peer-teach coding and collaboration skills. The setup work is often grossly underestimated and unseen. I’ll share how Openscapes automates setup with the Kyber R package that uses googlesheets4 and creates RMarkdown documents that become collaborative Google Doc agendas, and sets up repositories and organizes people on GitHub. Kyber replaces manual steps with R functions while maintaining the ability to edit outputs so we’re not constrained by the automation. It has enabled us to teach workshops repeatedly in less time – in 2022, we led four concurrent learning cohorts with 160 government scientists! Kyber is openly available to fork, reuse, and extend, and other groups are doing just that.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -52,10 +155,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -63,13 +172,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +224,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +258,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +293,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,253 +469,201 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="28.5546875" customWidth="1"/>
+    <col min="3" max="3" width="52.5546875" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>human_talk_title</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>human_description</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>human_title_word_count</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>human_description_word_count</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ai_summary</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>ai_summary_word_count</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>rainbowR - a community that supports, connects and promotes LGBTQ+ people who code in R</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rainbowR's mission is to connect, support, and promote LGBTQ+ people in the R community and to spread awareness of LGBTQ+ issues through data-driven activism. 
- In this lightning talk, you'll learn about the community, our activities, and how you can get involved, whether as a member of the LGBTQ+ community or an ally.  
- For more, see &lt;https://rainbow.org&gt;.</t>
-        </is>
-      </c>
-      <c r="C2">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2">
         <v>15</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>56</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>rainbowR connects and supports LGBTQ+ in the R community through data-driven activism and involvement.</t>
-        </is>
       </c>
       <c r="F2">
         <v>14</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>JSquarto: Bridging JavaScript Documentation with Quarto's Power</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>In this talk, Richie Moluno introduces a new tool called JSquarto, which solves common challenges developers face when documenting JavaScript projects, like the lack of support for multilingualism (especially for right-to-left languages and non-Latin scripts) and limited design flexibility. Inspired by quartodoc, Richie shows how Quarto can be used to solve these problems by generating flexible, multilingual JavaScript documentation. He also walks through how the whole process can be automated using GitHub, making it easier to keep docs up to date across different languages and formats &amp; how it can be integrated with Crowdin, a translation management system.</t>
-        </is>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>98</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Richie Moluno introduces JSquarto for generating multilingual, flexible JavaScript documentation integrated with GitHub.</t>
-        </is>
-      </c>
       <c r="F3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ten Simple Rules for Teaching an Introduction to R</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Many of us feel unprepared to teach R, either because of a lack of guidance or time to prepare. We’ve distilled our award-winning teaching experience into our top 10 takeaways so you can get up and running teaching R quickly. This includes advice for setting yourself up for success, keeping it practical, and knowing your learners. To see our tips in more detail, check out our paper: https://doi.org/10.1371/journal.pcbi.1012018</t>
-        </is>
-      </c>
-      <c r="C4">
+      <c r="C4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>68</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Find top 10 quick tips for effectively teaching R, including setup, practicality, and learner understanding.</t>
-        </is>
-      </c>
       <c r="F4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>R Scripts to Databricks: Lessons in Production Workflow</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>This talk is about how a team at The Walt Disney Company took the past year to take a local R workflow into production. This updated process uses a mix of R, Python, SQL, Databricks, and Tableau dashboard, all of which involves multiple teams and stakeholders. The project started as a manual monthly process to measure the effect of ESPN's live TV marketing to get consumers to convert to cross-channel platforms related to ESPN. But then we not only needed to automate this process, but also to scale it to measure the effect of marketing. The few lessons shared are: don't reinvent the wheel; use not only the best tool for the job, but the best available; take time to get used to new tools.</t>
-        </is>
-      </c>
-      <c r="C5">
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>125</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Disney automated and scaled ESPN's marketing measurement using R, Python, SQL, Databricks, and Tableau.</t>
-        </is>
       </c>
       <c r="F5">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Translating clinical guidance to actionable insights with R</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>COTA’s team of oncologists and data scientists curate real-world data used by life science companies and healthcare partners to inform drug development and patient care. Over time, we have received many of the same questions from our data users, which indicated a dire need for translating our internal clinical guidance and data model knowledge into a tool for successfully navigating our data. We developed rwnavigator, an R package that helps users easily prepare COTA data for analysis with time-to-event packages. As first-time package developers, we ran into many challenges as we created, tested, and deployed rwnavigator. We hope to share with the greater R community our motivations for developing this package and best practices we learned along the way.</t>
-        </is>
-      </c>
-      <c r="C6">
+    <row r="6" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>119</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>COTA developed "rwnavigator" R package to help users analyze oncology data, overcoming development challenges.</t>
-        </is>
-      </c>
       <c r="F6">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Why’d you load that package for?</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Packages enhance programming languages, and working with code makes workflows repeatable. However, the number of existing packages can be overwhelming to the point of obscuring their roles within projects. This talk discusses the importance of scripts, and introduces ways to enhance package load calls. First, by building annotations with the annotater R package and also by learning from code comments across GitHub. The value of recording information such as package source, version, title, or even which functions or data are used in a script is discussed in both data science and teaching environments.</t>
-        </is>
-      </c>
-      <c r="C7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>93</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Discusses improving package management with annotations and code comments for clarity in projects.</t>
-        </is>
-      </c>
       <c r="F7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>83</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>118</v>
+      </c>
+      <c r="F9">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>DataPages for interactive data sharing using Quarto</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Findable, accessible, interoperable, and reusable (FAIR) data sharing is a key component of open science but presents a challenge for researchers, especially those with limited technical expertise or resources. If datasets are shared, it's most often as static files, restricting the FAIRness of the data. We use Quarto and Observable JS to develop Datapages, tools and templates that bridge this gap. Datapages enables researchers and other data distributors to easily share versioned datasets along with interactive visualizations, rich documentation, and user-friendly access functionality.</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8">
-        <v>83</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Datapages improve FAIR data sharing by providing easy tools for interactive and accessible datasets.</t>
-        </is>
-      </c>
-      <c r="F8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Using the Kyber R package to connect Google Sheets, RMarkdown, GitHub, and Agenda docs for open education</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>As we work in open data science spaces, we frequently peer-teach coding and collaboration skills. The setup work is often grossly underestimated and unseen. I’ll share how Openscapes automates setup with the Kyber R package that uses googlesheets4 and creates RMarkdown documents that become collaborative Google Doc agendas, and sets up repositories and organizes people on GitHub. Kyber replaces manual steps with R functions while maintaining the ability to edit outputs so we’re not constrained by the automation. It has enabled us to teach workshops repeatedly in less time – in 2022, we led four concurrent learning cohorts with 160 government scientists! Kyber is openly available to fork, reuse, and extend, and other groups are doing just that.</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>17</v>
-      </c>
-      <c r="D9">
-        <v>118</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Kyber automates data science setup tasks, enhancing teaching efficiency and collaborative opportunities.</t>
-        </is>
-      </c>
-      <c r="F9">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/00_Outputs/df_ai_titles.xlsx
+++ b/00_Outputs/df_ai_titles.xlsx
@@ -1,124 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/546dce4fa68575c2/Desktop/R/01_Projects/00_TidyTuesday/For GitHub/TidyTuesday_2025-Jan-Wk2/00_Outputs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="11_AAF05FC78F79A8D366075C52F37BD272EA4CD000" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6AD27BF-4817-4CF2-BE1A-844C58BE58F8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>human_talk_title</t>
-  </si>
-  <si>
-    <t>ai_summary</t>
-  </si>
-  <si>
-    <t>human_description</t>
-  </si>
-  <si>
-    <t>human_title_word_count</t>
-  </si>
-  <si>
-    <t>human_description_word_count</t>
-  </si>
-  <si>
-    <t>ai_summary_word_count</t>
-  </si>
-  <si>
-    <t>rainbowR - a community that supports, connects and promotes LGBTQ+ people who code in R</t>
-  </si>
-  <si>
-    <t>rainbowR connects LGBTQ+ people in the R community through activism and offers involvement opportunities.</t>
-  </si>
-  <si>
-    <t>rainbowR's mission is to connect, support, and promote LGBTQ+ people in the R community and to spread awareness of LGBTQ+ issues through data-driven activism. 
- In this lightning talk, you'll learn about the community, our activities, and how you can get involved, whether as a member of the LGBTQ+ community or an ally.  
- For more, see &lt;https://rainbow.org&gt;.</t>
-  </si>
-  <si>
-    <t>JSquarto: Bridging JavaScript Documentation with Quarto's Power</t>
-  </si>
-  <si>
-    <t>Richie Moluno introduces JSquarto for generating flexible, multilingual JavaScript documentation using Quarto and GitHub.</t>
-  </si>
-  <si>
-    <t>In this talk, Richie Moluno introduces a new tool called JSquarto, which solves common challenges developers face when documenting JavaScript projects, like the lack of support for multilingualism (especially for right-to-left languages and non-Latin scripts) and limited design flexibility. Inspired by quartodoc, Richie shows how Quarto can be used to solve these problems by generating flexible, multilingual JavaScript documentation. He also walks through how the whole process can be automated using GitHub, making it easier to keep docs up to date across different languages and formats &amp; how it can be integrated with Crowdin, a translation management system.</t>
-  </si>
-  <si>
-    <t>Ten Simple Rules for Teaching an Introduction to R</t>
-  </si>
-  <si>
-    <t>Top 10 teaching R tips distilled from award-winning experience for quick, successful instruction.</t>
-  </si>
-  <si>
-    <t>Many of us feel unprepared to teach R, either because of a lack of guidance or time to prepare. We’ve distilled our award-winning teaching experience into our top 10 takeaways so you can get up and running teaching R quickly. This includes advice for setting yourself up for success, keeping it practical, and knowing your learners. To see our tips in more detail, check out our paper: https://doi.org/10.1371/journal.pcbi.1012018</t>
-  </si>
-  <si>
-    <t>R Scripts to Databricks: Lessons in Production Workflow</t>
-  </si>
-  <si>
-    <t>Disney streamlined ESPN's marketing analytics with automated R, Python, SQL, Databricks, and Tableau integration.</t>
-  </si>
-  <si>
-    <t>This talk is about how a team at The Walt Disney Company took the past year to take a local R workflow into production. This updated process uses a mix of R, Python, SQL, Databricks, and Tableau dashboard, all of which involves multiple teams and stakeholders. The project started as a manual monthly process to measure the effect of ESPN's live TV marketing to get consumers to convert to cross-channel platforms related to ESPN. But then we not only needed to automate this process, but also to scale it to measure the effect of marketing. The few lessons shared are: don't reinvent the wheel; use not only the best tool for the job, but the best available; take time to get used to new tools.</t>
-  </si>
-  <si>
-    <t>Translating clinical guidance to actionable insights with R</t>
-  </si>
-  <si>
-    <t>COTA developed rwnavigator, an R package, to help users analyze real-world oncological data.</t>
-  </si>
-  <si>
-    <t>COTA’s team of oncologists and data scientists curate real-world data used by life science companies and healthcare partners to inform drug development and patient care. Over time, we have received many of the same questions from our data users, which indicated a dire need for translating our internal clinical guidance and data model knowledge into a tool for successfully navigating our data. We developed rwnavigator, an R package that helps users easily prepare COTA data for analysis with time-to-event packages. As first-time package developers, we ran into many challenges as we created, tested, and deployed rwnavigator. We hope to share with the greater R community our motivations for developing this package and best practices we learned along the way.</t>
-  </si>
-  <si>
-    <t>Why’d you load that package for?</t>
-  </si>
-  <si>
-    <t>The talk explores managing packages with annotations for clarity and educational purposes.</t>
-  </si>
-  <si>
-    <t>Packages enhance programming languages, and working with code makes workflows repeatable. However, the number of existing packages can be overwhelming to the point of obscuring their roles within projects. This talk discusses the importance of scripts, and introduces ways to enhance package load calls. First, by building annotations with the annotater R package and also by learning from code comments across GitHub. The value of recording information such as package source, version, title, or even which functions or data are used in a script is discussed in both data science and teaching environments.</t>
-  </si>
-  <si>
-    <t>DataPages for interactive data sharing using Quarto</t>
-  </si>
-  <si>
-    <t>Datapages improves FAIR data sharing by offering interactive tools for non-experts.</t>
-  </si>
-  <si>
-    <t>Findable, accessible, interoperable, and reusable (FAIR) data sharing is a key component of open science but presents a challenge for researchers, especially those with limited technical expertise or resources. If datasets are shared, it's most often as static files, restricting the FAIRness of the data. We use Quarto and Observable JS to develop Datapages, tools and templates that bridge this gap. Datapages enables researchers and other data distributors to easily share versioned datasets along with interactive visualizations, rich documentation, and user-friendly access functionality.</t>
-  </si>
-  <si>
-    <t>Using the Kyber R package to connect Google Sheets, RMarkdown, GitHub, and Agenda docs for open education</t>
-  </si>
-  <si>
-    <t>Openscapes' Kyber automates setup for teaching coding, enhancing efficiency and collaboration in workshops.</t>
-  </si>
-  <si>
-    <t>As we work in open data science spaces, we frequently peer-teach coding and collaboration skills. The setup work is often grossly underestimated and unseen. I’ll share how Openscapes automates setup with the Kyber R package that uses googlesheets4 and creates RMarkdown documents that become collaborative Google Doc agendas, and sets up repositories and organizes people on GitHub. Kyber replaces manual steps with R functions while maintaining the ability to edit outputs so we’re not constrained by the automation. It has enabled us to teach workshops repeatedly in less time – in 2022, we led four concurrent learning cohorts with 160 government scientists! Kyber is openly available to fork, reuse, and extend, and other groups are doing just that.</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,16 +52,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -172,21 +63,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -224,7 +107,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -258,7 +141,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -293,10 +175,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -469,52 +350,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="23.6640625" customWidth="1"/>
-    <col min="2" max="2" width="28.5546875" customWidth="1"/>
-    <col min="3" max="3" width="52.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="12.109375" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>8</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>human_talk_title</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>ai_title</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>human_description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>human_title_word_count</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>human_description_word_count</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ai_title_word_count</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>rainbowR - a community that supports, connects and promotes LGBTQ+ people who code in R</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>"Join rainbowR: Empower LGBTQ+ in Data Science, Connect and Advocate with Us Today!"</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>rainbowR's mission is to connect, support, and promote LGBTQ+ people in the R community and to spread awareness of LGBTQ+ issues through data-driven activism. 
+ In this lightning talk, you'll learn about the community, our activities, and how you can get involved, whether as a member of the LGBTQ+ community or an ally.  
+ For more, see &lt;https://rainbow.org&gt;.</t>
+        </is>
       </c>
       <c r="D2">
         <v>15</v>
@@ -523,18 +414,24 @@
         <v>56</v>
       </c>
       <c r="F2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>JSquarto: Bridging JavaScript Documentation with Quarto's Power</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>"JSquarto: Revolutionizing Multilingual, Flexible JavaScript Documentation with GitHub and Crowdin Automation"</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>In this talk, Richie Moluno introduces a new tool called JSquarto, which solves common challenges developers face when documenting JavaScript projects, like the lack of support for multilingualism (especially for right-to-left languages and non-Latin scripts) and limited design flexibility. Inspired by quartodoc, Richie shows how Quarto can be used to solve these problems by generating flexible, multilingual JavaScript documentation. He also walks through how the whole process can be automated using GitHub, making it easier to keep docs up to date across different languages and formats &amp; how it can be integrated with Crowdin, a translation management system.</t>
+        </is>
       </c>
       <c r="D3">
         <v>7</v>
@@ -543,18 +440,24 @@
         <v>98</v>
       </c>
       <c r="F3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ten Simple Rules for Teaching an Introduction to R</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>"Master Teaching R: Top 10 Tips for Success and Practical Guidance"</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Many of us feel unprepared to teach R, either because of a lack of guidance or time to prepare. We’ve distilled our award-winning teaching experience into our top 10 takeaways so you can get up and running teaching R quickly. This includes advice for setting yourself up for success, keeping it practical, and knowing your learners. To see our tips in more detail, check out our paper: https://doi.org/10.1371/journal.pcbi.1012018</t>
+        </is>
       </c>
       <c r="D4">
         <v>9</v>
@@ -563,18 +466,24 @@
         <v>68</v>
       </c>
       <c r="F4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>R Scripts to Databricks: Lessons in Production Workflow</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Disney's Team Automates ESPN Marketing Analysis with R, Python, and Tableau Integration.</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>This talk is about how a team at The Walt Disney Company took the past year to take a local R workflow into production. This updated process uses a mix of R, Python, SQL, Databricks, and Tableau dashboard, all of which involves multiple teams and stakeholders. The project started as a manual monthly process to measure the effect of ESPN's live TV marketing to get consumers to convert to cross-channel platforms related to ESPN. But then we not only needed to automate this process, but also to scale it to measure the effect of marketing. The few lessons shared are: don't reinvent the wheel; use not only the best tool for the job, but the best available; take time to get used to new tools.</t>
+        </is>
       </c>
       <c r="D5">
         <v>8</v>
@@ -583,18 +492,24 @@
         <v>125</v>
       </c>
       <c r="F5">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Translating clinical guidance to actionable insights with R</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>"Rwnavigator: Streamlining Real-World Data Analysis for Oncologists and Data Scientists"</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>COTA’s team of oncologists and data scientists curate real-world data used by life science companies and healthcare partners to inform drug development and patient care. Over time, we have received many of the same questions from our data users, which indicated a dire need for translating our internal clinical guidance and data model knowledge into a tool for successfully navigating our data. We developed rwnavigator, an R package that helps users easily prepare COTA data for analysis with time-to-event packages. As first-time package developers, we ran into many challenges as we created, tested, and deployed rwnavigator. We hope to share with the greater R community our motivations for developing this package and best practices we learned along the way.</t>
+        </is>
       </c>
       <c r="D6">
         <v>8</v>
@@ -603,18 +518,24 @@
         <v>119</v>
       </c>
       <c r="F6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Why’d you load that package for?</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>"Enhance Workflow Clarity: Organize and Annotate Packages for Efficient Programming"</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Packages enhance programming languages, and working with code makes workflows repeatable. However, the number of existing packages can be overwhelming to the point of obscuring their roles within projects. This talk discusses the importance of scripts, and introduces ways to enhance package load calls. First, by building annotations with the annotater R package and also by learning from code comments across GitHub. The value of recording information such as package source, version, title, or even which functions or data are used in a script is discussed in both data science and teaching environments.</t>
+        </is>
       </c>
       <c r="D7">
         <v>6</v>
@@ -623,18 +544,24 @@
         <v>93</v>
       </c>
       <c r="F7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="144" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>DataPages for interactive data sharing using Quarto</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>"Datapages: Simplifying FAIR Data Sharing with Interactive Tools for Researchers"</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Findable, accessible, interoperable, and reusable (FAIR) data sharing is a key component of open science but presents a challenge for researchers, especially those with limited technical expertise or resources. If datasets are shared, it's most often as static files, restricting the FAIRness of the data. We use Quarto and Observable JS to develop Datapages, tools and templates that bridge this gap. Datapages enables researchers and other data distributors to easily share versioned datasets along with interactive visualizations, rich documentation, and user-friendly access functionality.</t>
+        </is>
       </c>
       <c r="D8">
         <v>7</v>
@@ -643,18 +570,24 @@
         <v>83</v>
       </c>
       <c r="F8">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Using the Kyber R package to connect Google Sheets, RMarkdown, GitHub, and Agenda docs for open education</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>"Automate Open Data Science Workshops: Experience Seamless Setup with Kyber and Boost Collaboration!"</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>As we work in open data science spaces, we frequently peer-teach coding and collaboration skills. The setup work is often grossly underestimated and unseen. I’ll share how Openscapes automates setup with the Kyber R package that uses googlesheets4 and creates RMarkdown documents that become collaborative Google Doc agendas, and sets up repositories and organizes people on GitHub. Kyber replaces manual steps with R functions while maintaining the ability to edit outputs so we’re not constrained by the automation. It has enabled us to teach workshops repeatedly in less time – in 2022, we led four concurrent learning cohorts with 160 government scientists! Kyber is openly available to fork, reuse, and extend, and other groups are doing just that.</t>
+        </is>
       </c>
       <c r="D9">
         <v>17</v>
